--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 1 (40, 15, 6, 37, 25)/Ableson 2 (26, 13, 27, 25, 16)/NCDE_32nodes_Uniform0.05Virtual_Nelson(40, 15, 6, 37, 25)_Ableson(26, 13, 27, 25, 16)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 1 (40, 15, 6, 37, 25)/Ableson 2 (26, 13, 27, 25, 16)/NCDE_32nodes_Uniform0.05Virtual_Nelson(40, 15, 6, 37, 25)_Ableson(26, 13, 27, 25, 16)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999994631820581</v>
+        <v>0.999999451631079</v>
       </c>
       <c r="E2">
-        <v>0.9999994631820581</v>
+        <v>0.999999451631079</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.5296984780995104</v>
+        <v>0.5298892219228659</v>
       </c>
       <c r="E3">
-        <v>0.5296984780995104</v>
+        <v>0.5298892219228659</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.1624514236204495</v>
+        <v>0.1640915102849946</v>
       </c>
       <c r="E4">
-        <v>0.1624514236204495</v>
+        <v>0.1640915102849946</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.009827743669259386</v>
+        <v>0.009908523250282476</v>
       </c>
       <c r="E5">
-        <v>0.009827743669259386</v>
+        <v>0.009908523250282476</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9817978119115881</v>
+        <v>0.9816247461793194</v>
       </c>
       <c r="E6">
-        <v>0.9817978119115881</v>
+        <v>0.9816247461793194</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -523,13 +523,13 @@
         <v>11</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.995885497872519</v>
+        <v>5.112407847876086E-05</v>
       </c>
       <c r="E7">
-        <v>0.00411450212748099</v>
+        <v>0.9999488759215213</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9957188283050925</v>
+        <v>0.9697894700808201</v>
       </c>
       <c r="E8">
-        <v>0.004281171694907493</v>
+        <v>0.03021052991917994</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9960743640066145</v>
+        <v>0.9852428483625978</v>
       </c>
       <c r="E9">
-        <v>0.003925635993385468</v>
+        <v>0.01475715163740221</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9961411372401614</v>
+        <v>0.9999999999904157</v>
       </c>
       <c r="E10">
-        <v>0.003858862759838599</v>
+        <v>9.584333326984051E-12</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9960244826197057</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0.003975517380294336</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1.940554976463318</v>
+        <v>2.928384780883789</v>
       </c>
       <c r="G11">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.999999999992625</v>
+        <v>0.9999999999926235</v>
       </c>
       <c r="E12">
-        <v>0.999999999992625</v>
+        <v>0.9999999999926235</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.9999999996392996</v>
+        <v>0.9999999996385267</v>
       </c>
       <c r="E13">
-        <v>0.9999999996392996</v>
+        <v>0.9999999996385267</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.4308902834855</v>
+        <v>0.4308942062822707</v>
       </c>
       <c r="E14">
-        <v>0.4308902834855</v>
+        <v>0.4308942062822707</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>5.576629603133474E-16</v>
+        <v>5.592882440660861E-16</v>
       </c>
       <c r="E15">
-        <v>5.576629603133474E-16</v>
+        <v>5.592882440660861E-16</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.994916956691325</v>
+        <v>0.994915382659006</v>
       </c>
       <c r="E16">
-        <v>0.994916956691325</v>
+        <v>0.994915382659006</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -672,13 +672,13 @@
         <v>11</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.9994263749334876</v>
+        <v>1.5471022545037E-07</v>
       </c>
       <c r="E17">
-        <v>0.0005736250665123732</v>
+        <v>0.9999998452897746</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -689,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.9993138823005753</v>
+        <v>0.9992763503012601</v>
       </c>
       <c r="E18">
-        <v>0.0006861176994247264</v>
+        <v>0.0007236496987399477</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -703,10 +703,10 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.9994674995777205</v>
+        <v>0.9995453213406974</v>
       </c>
       <c r="E19">
-        <v>0.0005325004222794805</v>
+        <v>0.0004546786593025987</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -717,10 +717,10 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.9994703767312445</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0.0005296232687554969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.9993768291274957</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>0.0006231708725042973</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>5.32243824005127</v>
+        <v>6.890167236328125</v>
       </c>
       <c r="G21">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
